--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672276.956088198</v>
+        <v>1776456.590539271</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>43.43639098655759</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>169.5799223726285</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414521</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189225</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -820,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>131.5522128412685</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>45.81448516650242</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814216</v>
+        <v>345.3378010935415</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>57.91073356940582</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>224.1347930294039</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>84.2229096522898</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>76.47111150189275</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>29.28952983701037</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>34.45703212904731</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>49.33251894258947</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376912</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856251</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.7084378797738</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>130.4114987159134</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>135.0949745400652</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922736</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>82.47290449300853</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.23766645968297</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58.24570521548608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>23.6255456814136</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.5271979141359</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>120.7871326503968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>169.515307224434</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126791</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>116.287325111933</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.82863813027228</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="V2" t="n">
-        <v>2790.491825528658</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.723170258544</v>
+        <v>2766.859418723277</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.723170258544</v>
+        <v>2393.393660462197</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>2003.254328486385</v>
       </c>
     </row>
     <row r="3">
@@ -4389,25 +4391,25 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
@@ -4419,40 +4421,40 @@
         <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201684</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2787.057062648986</v>
+        <v>518.4459618444143</v>
       </c>
       <c r="C4" t="n">
-        <v>2618.120879721079</v>
+        <v>349.5097789165075</v>
       </c>
       <c r="D4" t="n">
-        <v>2618.120879721079</v>
+        <v>199.3931395041717</v>
       </c>
       <c r="E4" t="n">
-        <v>2618.120879721079</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>3189.498106622756</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>3189.498106622756</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>2968.705527479226</v>
+        <v>700.0944266746541</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2075.917979740103</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4674,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1844.338003964585</v>
       </c>
       <c r="C8" t="n">
         <v>1617.939223126803</v>
@@ -4787,10 +4789,10 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,37 +4819,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.901740067214</v>
+        <v>2621.077176004518</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2230.937844028706</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396066</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396066</v>
+        <v>241.0813405854469</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>241.0813405854469</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>241.0813405854469</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>891.301622144437</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>891.301622144437</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>669.5350067139631</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U10" t="n">
-        <v>380.4321398396066</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="V10" t="n">
-        <v>380.4321398396066</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="W10" t="n">
-        <v>380.4321398396066</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="X10" t="n">
-        <v>380.4321398396066</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396066</v>
+        <v>410.0175235133538</v>
       </c>
     </row>
     <row r="11">
@@ -5030,25 +5032,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,16 +5059,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5081,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3584617859342</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>747.3584617859342</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>599.4453682035411</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>452.5554207056307</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>285.3593214205106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>143.6474902627087</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429772</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578571</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000552</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5467,19 +5469,19 @@
         <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,28 +5530,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,19 +5600,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>2438.670847218162</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>2438.670847218162</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>2438.670847218162</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>2438.670847218162</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5747,52 +5749,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3160.179968880559</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>2991.243785952652</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>2841.127146540317</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>2693.214052957923</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T22" t="n">
-        <v>4623.787448650995</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U22" t="n">
-        <v>4334.712221995193</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>4080.027733789307</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>3790.610563752346</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>3562.621012854329</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>3341.828433710799</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>545.3854261579752</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>397.4723325755821</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
@@ -6230,46 +6232,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,22 +6311,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811379</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532311</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408953</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408953</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>484.811296842985</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2363.657119445908</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2144.05565446885</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511378</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578602</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>199.7675539570417</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.154262550759</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>2438.670847218163</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.972636491141</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>215.8238677453423</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1618.570148794804</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>945.402603663004</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>776.4664207350971</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>626.3497813227614</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>478.4366877403683</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>331.5467402424579</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G46" t="n">
-        <v>164.3506409573378</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>164.3506409573378</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>114.158440889165</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>114.1584408891621</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664501</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.00954930701789</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>35.11263957635547</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>75.37549921168727</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>98.55338150863606</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.3469868924118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>43.26526345294994</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>116.6691671648103</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.30478226780144</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.32043864788466</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>24.63391537253449</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>116.6691671648102</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.6085800303767</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>11.43719818829325</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920647</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920643</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.7441040527</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26433,7 +26435,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346469</v>
+        <v>-976072.2357346467</v>
       </c>
       <c r="C6" t="n">
         <v>352672.5099929456</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929456</v>
+        <v>352672.5099929454</v>
       </c>
       <c r="E6" t="n">
-        <v>102242.3791875995</v>
+        <v>102242.3791875992</v>
       </c>
       <c r="F6" t="n">
-        <v>427654.840994955</v>
+        <v>427654.8409949551</v>
       </c>
       <c r="G6" t="n">
         <v>427654.8409949549</v>
       </c>
       <c r="H6" t="n">
-        <v>427654.8409949548</v>
+        <v>427654.8409949552</v>
       </c>
       <c r="I6" t="n">
-        <v>427654.8409949546</v>
+        <v>427654.8409949551</v>
       </c>
       <c r="J6" t="n">
-        <v>210123.6385976776</v>
+        <v>210123.638597678</v>
       </c>
       <c r="K6" t="n">
         <v>427654.8409949546</v>
       </c>
       <c r="L6" t="n">
-        <v>427654.840994955</v>
+        <v>427654.8409949545</v>
       </c>
       <c r="M6" t="n">
         <v>342599.8130594429</v>
       </c>
       <c r="N6" t="n">
-        <v>427654.8409949547</v>
+        <v>427654.8409949552</v>
       </c>
       <c r="O6" t="n">
-        <v>427654.8409949547</v>
+        <v>427654.8409949551</v>
       </c>
       <c r="P6" t="n">
-        <v>427654.8409949549</v>
+        <v>427654.840994955</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>339.297450676923</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>158.1723360975064</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.529532139305957e-12</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>14.8817498053007</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>240.7085131700886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803269</v>
+        <v>24.39329958492755</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>167.7989218196313</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>141.1380987416037</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>285.5081910261792</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>68.9499365210385</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>59.64262283303695</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-4.796661474883757e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28503,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>615.038144437878</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N24" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,25 +33031,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>501.1621040024322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209183</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551096</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>500.7380235181012</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>550.5977692975241</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270658</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940682</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>312.3207226334981</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>472.9041105158597</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N24" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>369.8203919190989</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410441</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.76383318075059</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>366.763616103771</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962379</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1776456.590539271</v>
+        <v>1772443.980525277</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.43639098655759</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414521</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.5522128412685</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.08802744677264</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>20.47554896769245</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>345.3378010935415</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>57.91073356940582</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>224.1347930294039</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>134.0513867710685</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>76.47111150189275</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.45703212904731</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758715</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>31.26260713376912</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856251</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>142.7059665293327</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.26260713376619</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>82.47290449300853</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>23.10998325717174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>23.6255456814136</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>169.515307224434</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>35.41770597126791</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>151.3642268094353</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2766.859418723277</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>2393.393660462197</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2003.254328486385</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201684</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.4459618444143</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C4" t="n">
-        <v>349.5097789165075</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D4" t="n">
-        <v>199.3931395041717</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218338</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218338</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>139.3283057723578</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746541</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1252.833343223197</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450751</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450751</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2075.917979740103</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.5608581015648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>772.5608581015648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>772.5608581015648</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964585</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389511</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265598</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265598</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.077176004518</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028706</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>410.0175235133538</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>241.0813405854469</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>241.0813405854469</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>241.0813405854469</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877102</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>410.0175235133538</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>410.0175235133538</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>410.0175235133538</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>410.0175235133538</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>410.0175235133538</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,16 +5293,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429772</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578571</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000552</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487568</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.448174698413</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2363.657119445908</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.05565446885</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1854.980427813048</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1082.889218672183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0966395286528</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>557.5558870561822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1732.088140170817</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.40365196493</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.986481927969</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>959.9969310299521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.2043518864219</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400721</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400721</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400721</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>366.9636532421617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>199.7675539570417</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558406</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630499</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>2438.670847218163</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>2438.670847218163</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>2438.670847218163</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>2438.670847218163</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021787</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.7012443408905</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408905</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1806.233497455525</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1551.549009249638</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.131839212678</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1034.14228831466</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>813.3497091711303</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.826443164475</v>
+        <v>1535.492695461337</v>
       </c>
       <c r="W43" t="n">
-        <v>1358.409273127515</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>114.158440889165</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.1584408891621</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.32043864788525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>35.11263957635547</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>47.43691740069067</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>98.55338150863606</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.26526345294994</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.6691671648103</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788466</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>116.6691671648102</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>145.6085800303767</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882931.1937920647</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882931.1937920646</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882931.1937920643</v>
+        <v>882931.1937920644</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907535</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972771</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040527</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405265</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26435,7 +26435,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346467</v>
+        <v>-976072.235734647</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929456</v>
+        <v>352672.5099929455</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929454</v>
+        <v>352672.5099929458</v>
       </c>
       <c r="E6" t="n">
-        <v>102242.3791875992</v>
+        <v>101894.9999332427</v>
       </c>
       <c r="F6" t="n">
-        <v>427654.8409949551</v>
+        <v>427307.4617405979</v>
       </c>
       <c r="G6" t="n">
-        <v>427654.8409949549</v>
+        <v>427307.4617405981</v>
       </c>
       <c r="H6" t="n">
-        <v>427654.8409949552</v>
+        <v>427307.4617405977</v>
       </c>
       <c r="I6" t="n">
-        <v>427654.8409949551</v>
+        <v>427307.4617405981</v>
       </c>
       <c r="J6" t="n">
-        <v>210123.638597678</v>
+        <v>209776.25934332</v>
       </c>
       <c r="K6" t="n">
-        <v>427654.8409949546</v>
+        <v>427307.4617405979</v>
       </c>
       <c r="L6" t="n">
-        <v>427654.8409949545</v>
+        <v>427307.4617405978</v>
       </c>
       <c r="M6" t="n">
-        <v>342599.8130594429</v>
+        <v>342252.4338050861</v>
       </c>
       <c r="N6" t="n">
-        <v>427654.8409949552</v>
+        <v>427307.461740598</v>
       </c>
       <c r="O6" t="n">
-        <v>427654.8409949551</v>
+        <v>427307.4617405979</v>
       </c>
       <c r="P6" t="n">
-        <v>427654.840994955</v>
+        <v>427307.4617405976</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339.297450676923</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.529532139305957e-12</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.8817498053007</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>72.66698746754814</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>344.7973428033151</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.39329958492755</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>167.7989218196313</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>141.1380987416037</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>69.86658336855169</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>68.9499365210385</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.796661474883757e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,25 +33268,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209183</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551096</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162543</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940682</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410441</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962379</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1772443.980525277</v>
+        <v>1774204.510828063</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>75.94848555066385</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>72.08802744677264</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>20.47554896769245</v>
+        <v>255.6896900647764</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.0880274467727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>44.37321050886605</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>134.0513867710685</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>41.74133133758715</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>185.7223172888152</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>55.52079624060383</v>
+        <v>68.17501931583821</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>199.6970586308204</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.7059665293327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>33.82891891787487</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367412</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>132.7328787290205</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>42.71572132711237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>55.52079624060381</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>151.3642268094353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>751.9508228902781</v>
+        <v>751.9508228902777</v>
       </c>
       <c r="D4" t="n">
-        <v>601.8341834779424</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>453.9210898955492</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>307.0311423976389</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>139.3283057723578</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223197</v>
+        <v>2234.477335940398</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>2621.07717600452</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>950.1045973369969</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>564.3163447387526</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>153.330439949145</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,10 +4816,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3079.909711953368</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3079.909711953368</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3079.909711953368</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3079.909711953368</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>3079.909711953368</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753331</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929399</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>135.9796239950296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122182</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G16" t="n">
-        <v>149.8982754122182</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>942.5699949746665</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>721.7774158311364</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>551.354624631591</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C22" t="n">
-        <v>382.4184417036842</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
         <v>235.5284942057738</v>
@@ -5904,58 +5904,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>127.9872882175424</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>127.9872882175424</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>127.9872882175424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>816.1129388983999</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1535.492695461337</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>100.4621571004289</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>84.77391660562006</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>26.01259675821674</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.1260136526046</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>47.43691740069067</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>280.2941372823665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882931.1937920644</v>
+        <v>882931.1937920646</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583914</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907535</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26432,7 +26432,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.235734647</v>
+        <v>-976072.2357346469</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929455</v>
+        <v>352672.5099929456</v>
       </c>
       <c r="D6" t="n">
-        <v>352672.5099929458</v>
+        <v>352672.5099929456</v>
       </c>
       <c r="E6" t="n">
-        <v>101894.9999332427</v>
+        <v>102207.6412621639</v>
       </c>
       <c r="F6" t="n">
-        <v>427307.4617405979</v>
+        <v>427620.1030695194</v>
       </c>
       <c r="G6" t="n">
-        <v>427307.4617405981</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="H6" t="n">
-        <v>427307.4617405977</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="I6" t="n">
-        <v>427307.4617405981</v>
+        <v>427620.103069519</v>
       </c>
       <c r="J6" t="n">
-        <v>209776.25934332</v>
+        <v>210088.900672242</v>
       </c>
       <c r="K6" t="n">
-        <v>427307.4617405979</v>
+        <v>427620.1030695194</v>
       </c>
       <c r="L6" t="n">
-        <v>427307.4617405978</v>
+        <v>427620.1030695193</v>
       </c>
       <c r="M6" t="n">
-        <v>342252.4338050861</v>
+        <v>342565.075134007</v>
       </c>
       <c r="N6" t="n">
-        <v>427307.461740598</v>
+        <v>427620.1030695192</v>
       </c>
       <c r="O6" t="n">
-        <v>427307.4617405979</v>
+        <v>427620.1030695188</v>
       </c>
       <c r="P6" t="n">
-        <v>427307.4617405976</v>
+        <v>427620.1030695189</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.66698746754851</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>72.66698746754814</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>344.7973428033151</v>
+        <v>109.5832017062312</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351646</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>366.5485151445874</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>69.86658336855169</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460039</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>405.044904796216</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
